--- a/Jashera 2023/Jashra_2023.xlsx
+++ b/Jashera 2023/Jashra_2023.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Jashera 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Телефоны" sheetId="14" r:id="rId1"/>
@@ -29,22 +34,22 @@
     <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Участники!$H$1:$M$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Список для страховки'!#REF!</definedName>
     <definedName name="_ftn1" localSheetId="5">'Маршлист внешняя сторона'!$H$29</definedName>
     <definedName name="_ftnref1" localSheetId="5">'Маршлист внешняя сторона'!$H$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Для МЧС'!#REF!</definedName>
-    <definedName name="class" localSheetId="7">[3]Справочник!$H$2:$H$14</definedName>
-    <definedName name="class">[1]Справочник!$H$2:$H$14</definedName>
-    <definedName name="dist" localSheetId="7">[3]Справочник!$F$2:$F$19</definedName>
-    <definedName name="dist">[2]Справочник!$F$2:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Список для страховки'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Телефоны!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Участники!$H$1:$M$36</definedName>
+    <definedName name="class" localSheetId="7">[1]Справочник!$H$2:$H$14</definedName>
+    <definedName name="class" localSheetId="1">[4]Справочник!$H$2:$H$14</definedName>
     <definedName name="class" localSheetId="2">[4]Справочник!$H$2:$H$14</definedName>
+    <definedName name="class">[2]Справочник!$H$2:$H$14</definedName>
+    <definedName name="dist" localSheetId="7">[1]Справочник!$F$2:$F$19</definedName>
+    <definedName name="dist" localSheetId="1">[5]Справочник!$F$2:$F$19</definedName>
     <definedName name="dist" localSheetId="2">[5]Справочник!$F$2:$F$19</definedName>
-    <definedName name="class" localSheetId="1">[4]Справочник!$H$2:$H$14</definedName>
-    <definedName name="dist" localSheetId="1">[5]Справочник!$F$2:$F$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Телефоны!#REF!</definedName>
+    <definedName name="dist">[3]Справочник!$F$2:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2184,19 +2189,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="#\ ##0"/>
-    <numFmt numFmtId="183" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="184" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="167" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="169" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="170" formatCode="#\ ##0"/>
+    <numFmt numFmtId="171" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="172" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2433,131 +2434,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2566,20 +2444,56 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2634,188 +2548,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3024,269 +2758,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3301,17 +2799,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3329,11 +2827,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3342,11 +2840,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3355,9 +2853,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3372,7 +2870,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -3381,10 +2879,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -3393,7 +2891,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3405,7 +2903,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3419,15 +2917,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3442,7 +2940,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3450,86 +2948,29 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3546,22 +2987,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3577,35 +3009,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3618,47 +3035,26 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3667,19 +3063,19 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3688,31 +3084,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3723,8 +3110,8 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3735,99 +3122,211 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="42" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="10">
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="2"/>
-    <cellStyle name="Денежный [0]" xfId="3" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="4" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="5" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="6" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="7" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="8" builtinId="3"/>
-    <cellStyle name="Обычный_общий список" xfId="9"/>
-    <cellStyle name="40% — Акцент6" xfId="10" builtinId="51"/>
-    <cellStyle name="Процент" xfId="11" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="12" builtinId="34"/>
-    <cellStyle name="Итого" xfId="13" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="14" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="15" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="16" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="18" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="19" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="20" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="21" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="22" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="23" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="24" builtinId="18"/>
-    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="25"/>
-    <cellStyle name="Заголовок 4" xfId="26" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="27" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="28" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="29" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="30" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="31" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="32" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="33" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="35" builtinId="30"/>
-    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="36"/>
-    <cellStyle name="40% — Акцент1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="38" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="39" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="40" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="42" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="43" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="44" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="45" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="46" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="47" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="48" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="49" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="50" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="51" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="52" builtinId="52"/>
-    <cellStyle name="Обычный_Jaschera_07" xfId="53"/>
-    <cellStyle name="Обычный_Jashera 2018" xfId="54"/>
-    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="55"/>
+    <cellStyle name="Обычный_Jaschera_07" xfId="7"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="8"/>
+    <cellStyle name="Обычный_Внутренняя таблица марш. листа" xfId="9"/>
+    <cellStyle name="Обычный_МАРШ.ЛИСТ ПЕРВАЯ ЯЩЕРА" xfId="4"/>
+    <cellStyle name="Обычный_общий список" xfId="2"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ" xfId="6"/>
+    <cellStyle name="Обычный_СПИСОК ОБОРУДОВАНИЯ_1" xfId="1"/>
+    <cellStyle name="Плохой" xfId="5" builtinId="27"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3844,12 +3343,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3870,7 +3372,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3891,7 +3393,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3912,7 +3414,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -3933,7 +3435,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -4205,1182 +3707,1181 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:XDX35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66666666666667" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="194" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" style="194" customWidth="1"/>
-    <col min="3" max="3" width="9.22222222222222" style="194" customWidth="1"/>
-    <col min="4" max="4" width="18.4444444444444" style="194" customWidth="1"/>
-    <col min="5" max="5" width="13.2222222222222" style="194" customWidth="1"/>
-    <col min="6" max="6" width="13" style="194" customWidth="1"/>
-    <col min="7" max="7" width="14.6666666666667" style="194" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" style="194"/>
-    <col min="9" max="9" width="13" style="194" customWidth="1"/>
-    <col min="10" max="10" width="13.2222222222222" style="194" customWidth="1"/>
-    <col min="11" max="11" width="43.4444444444444" style="194" customWidth="1"/>
-    <col min="12" max="16352" width="9.66666666666667" style="194"/>
-    <col min="16353" max="16384" width="9.66666666666667" style="196"/>
+    <col min="1" max="1" width="15.7109375" style="157" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="157" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="157" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="157" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="157" customWidth="1"/>
+    <col min="6" max="6" width="13" style="157" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="157" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="157" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="157" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="157" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="214" customWidth="1"/>
+    <col min="12" max="16352" width="9.7109375" style="157"/>
+    <col min="16353" max="16384" width="9.7109375" style="159"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="197" t="s">
+      <c r="B1" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="198" t="s">
+      <c r="F1" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="198" t="s">
+      <c r="H1" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="198" t="s">
+      <c r="I1" s="200" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="209" t="s">
+      <c r="J1" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="198" t="s">
+      <c r="K1" s="200" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199">
-        <v>1</v>
-      </c>
-      <c r="E2" s="199">
-        <v>1</v>
-      </c>
-      <c r="F2" s="199">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202">
+        <v>1</v>
+      </c>
+      <c r="E2" s="202">
+        <v>1</v>
+      </c>
+      <c r="F2" s="202">
         <v>9119433692</v>
       </c>
-      <c r="G2" s="199" t="s">
+      <c r="G2" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="199" t="s">
+      <c r="H2" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="199" t="s">
+      <c r="I2" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="199">
+      <c r="J2" s="202">
         <v>9119433692</v>
       </c>
-      <c r="K2" s="199" t="s">
+      <c r="K2" s="204" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="193" customFormat="1" spans="1:11">
-      <c r="A3" s="199" t="s">
+    <row r="3" spans="1:11" s="156" customFormat="1">
+      <c r="A3" s="202" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199">
-        <v>1</v>
-      </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199">
+      <c r="C3" s="202"/>
+      <c r="D3" s="202">
+        <v>1</v>
+      </c>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202">
         <v>9811328422</v>
       </c>
-      <c r="G3" s="199" t="s">
+      <c r="G3" s="202" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="199" t="s">
+      <c r="H3" s="202" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="199" t="s">
+      <c r="I3" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="199">
+      <c r="J3" s="202">
         <v>9817470803</v>
       </c>
-      <c r="K3" s="199" t="s">
+      <c r="K3" s="204" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199">
-        <v>1</v>
-      </c>
-      <c r="F4" s="199">
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202">
+        <v>1</v>
+      </c>
+      <c r="F4" s="202">
         <v>9817122479</v>
       </c>
-      <c r="G4" s="199" t="s">
+      <c r="G4" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="199" t="s">
+      <c r="H4" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="199" t="s">
+      <c r="I4" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="199">
+      <c r="J4" s="202">
         <v>9052006465</v>
       </c>
-      <c r="K4" s="199" t="s">
+      <c r="K4" s="204" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199">
-        <v>1</v>
-      </c>
-      <c r="E5" s="199">
-        <v>1</v>
-      </c>
-      <c r="F5" s="199">
+      <c r="C5" s="202"/>
+      <c r="D5" s="202">
+        <v>1</v>
+      </c>
+      <c r="E5" s="202">
+        <v>1</v>
+      </c>
+      <c r="F5" s="202">
         <v>9818295984</v>
       </c>
-      <c r="G5" s="199" t="s">
+      <c r="G5" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="199" t="s">
+      <c r="H5" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="199" t="s">
+      <c r="I5" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="202">
         <v>9213414725</v>
       </c>
-      <c r="K5" s="199" t="s">
+      <c r="K5" s="204" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="199" t="s">
+      <c r="A6" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199">
-        <v>1</v>
-      </c>
-      <c r="E6" s="199">
-        <v>1</v>
-      </c>
-      <c r="F6" s="199">
+      <c r="C6" s="202"/>
+      <c r="D6" s="202">
+        <v>1</v>
+      </c>
+      <c r="E6" s="202">
+        <v>1</v>
+      </c>
+      <c r="F6" s="202">
         <v>9602540838</v>
       </c>
-      <c r="G6" s="199" t="s">
+      <c r="G6" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="199" t="s">
+      <c r="H6" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="199" t="s">
+      <c r="I6" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="199">
+      <c r="J6" s="202">
         <v>9632430934</v>
       </c>
-      <c r="K6" s="199" t="s">
+      <c r="K6" s="204" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199">
-        <v>1</v>
-      </c>
-      <c r="E7" s="199">
-        <v>1</v>
-      </c>
-      <c r="F7" s="199">
+      <c r="C7" s="202"/>
+      <c r="D7" s="202">
+        <v>1</v>
+      </c>
+      <c r="E7" s="202">
+        <v>1</v>
+      </c>
+      <c r="F7" s="202">
         <v>9602540838</v>
       </c>
-      <c r="G7" s="199" t="s">
+      <c r="G7" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="199" t="s">
+      <c r="H7" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="199" t="s">
+      <c r="I7" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="199">
+      <c r="J7" s="202">
         <v>9632430934</v>
       </c>
-      <c r="K7" s="199" t="s">
+      <c r="K7" s="204" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="199">
-        <v>1</v>
-      </c>
-      <c r="D8" s="199">
-        <v>1</v>
-      </c>
-      <c r="E8" s="199">
-        <v>1</v>
-      </c>
-      <c r="F8" s="199">
+      <c r="C8" s="202">
+        <v>1</v>
+      </c>
+      <c r="D8" s="202">
+        <v>1</v>
+      </c>
+      <c r="E8" s="202">
+        <v>1</v>
+      </c>
+      <c r="F8" s="202">
         <v>9291040939</v>
       </c>
-      <c r="G8" s="199" t="s">
+      <c r="G8" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="199" t="s">
+      <c r="H8" s="202" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="199" t="s">
+      <c r="I8" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="199">
+      <c r="J8" s="202">
         <v>89052622652</v>
       </c>
-      <c r="K8" s="199" t="s">
+      <c r="K8" s="204" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199">
-        <v>1</v>
-      </c>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199">
+      <c r="C9" s="202"/>
+      <c r="D9" s="202">
+        <v>1</v>
+      </c>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202">
         <v>9112625350</v>
       </c>
-      <c r="G9" s="199" t="s">
+      <c r="G9" s="202" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="199" t="s">
+      <c r="H9" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="199" t="s">
+      <c r="I9" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="199">
+      <c r="J9" s="202">
         <v>89219703060</v>
       </c>
-      <c r="K9" s="199" t="s">
+      <c r="K9" s="204" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="199" t="s">
+    <row r="10" spans="1:11" ht="26.25">
+      <c r="A10" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199">
-        <v>1</v>
-      </c>
-      <c r="E10" s="199">
-        <v>1</v>
-      </c>
-      <c r="F10" s="199">
+      <c r="C10" s="202"/>
+      <c r="D10" s="202">
+        <v>1</v>
+      </c>
+      <c r="E10" s="202">
+        <v>1</v>
+      </c>
+      <c r="F10" s="202">
         <v>9522270284</v>
       </c>
-      <c r="G10" s="199" t="s">
+      <c r="G10" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="199" t="s">
+      <c r="H10" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="199" t="s">
+      <c r="I10" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="199">
+      <c r="J10" s="202">
         <v>9213354865</v>
       </c>
-      <c r="K10" s="199" t="s">
+      <c r="K10" s="204" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" s="194" customFormat="1" spans="1:11">
-      <c r="A11" s="199" t="s">
+    <row r="11" spans="1:11" s="157" customFormat="1" ht="26.25">
+      <c r="A11" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199">
-        <v>1</v>
-      </c>
-      <c r="E11" s="199">
-        <v>1</v>
-      </c>
-      <c r="F11" s="199">
+      <c r="C11" s="202"/>
+      <c r="D11" s="202">
+        <v>1</v>
+      </c>
+      <c r="E11" s="202">
+        <v>1</v>
+      </c>
+      <c r="F11" s="202">
         <v>9957126192</v>
       </c>
-      <c r="G11" s="199" t="s">
+      <c r="G11" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="199" t="s">
+      <c r="H11" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="199" t="s">
+      <c r="I11" s="202" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="199">
+      <c r="J11" s="202">
         <v>89112327024</v>
       </c>
-      <c r="K11" s="199" t="s">
+      <c r="K11" s="204" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="199" t="s">
+    <row r="12" spans="1:11" ht="26.25">
+      <c r="A12" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="199" t="s">
+      <c r="B12" s="202" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199">
-        <v>1</v>
-      </c>
-      <c r="F12" s="199">
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202">
+        <v>1</v>
+      </c>
+      <c r="F12" s="202">
         <v>9214136722</v>
       </c>
-      <c r="G12" s="199" t="s">
+      <c r="G12" s="202" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="199" t="s">
+      <c r="H12" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="199" t="s">
+      <c r="I12" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="199">
+      <c r="J12" s="202">
         <v>89217427984</v>
       </c>
-      <c r="K12" s="199" t="s">
+      <c r="K12" s="204" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="199" t="s">
+      <c r="A13" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="199" t="s">
+      <c r="B13" s="202" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="199">
-        <v>1</v>
-      </c>
-      <c r="D13" s="199">
-        <v>1</v>
-      </c>
-      <c r="E13" s="199">
-        <v>1</v>
-      </c>
-      <c r="F13" s="199">
+      <c r="C13" s="202">
+        <v>1</v>
+      </c>
+      <c r="D13" s="202">
+        <v>1</v>
+      </c>
+      <c r="E13" s="202">
+        <v>1</v>
+      </c>
+      <c r="F13" s="202">
         <v>9219845986</v>
       </c>
-      <c r="G13" s="199" t="s">
+      <c r="G13" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="199" t="s">
+      <c r="H13" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="199" t="s">
+      <c r="I13" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="199">
+      <c r="J13" s="202">
         <v>9213323160</v>
       </c>
-      <c r="K13" s="199" t="s">
+      <c r="K13" s="204" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="199" t="s">
+      <c r="B14" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200">
+      <c r="C14" s="202"/>
+      <c r="D14" s="203">
         <v>45046</v>
       </c>
-      <c r="E14" s="199">
-        <v>1</v>
-      </c>
-      <c r="F14" s="199">
+      <c r="E14" s="202">
+        <v>1</v>
+      </c>
+      <c r="F14" s="202">
         <v>9259175393</v>
       </c>
-      <c r="G14" s="199" t="s">
+      <c r="G14" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="199" t="s">
+      <c r="H14" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="199" t="s">
+      <c r="I14" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="199">
+      <c r="J14" s="202">
         <v>9217427984</v>
       </c>
-      <c r="K14" s="199" t="s">
+      <c r="K14" s="204" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="199" t="s">
+      <c r="A15" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="199" t="s">
+      <c r="B15" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="199">
-        <v>1</v>
-      </c>
-      <c r="D15" s="199">
-        <v>1</v>
-      </c>
-      <c r="E15" s="199">
-        <v>1</v>
-      </c>
-      <c r="F15" s="199">
+      <c r="C15" s="202">
+        <v>1</v>
+      </c>
+      <c r="D15" s="202">
+        <v>1</v>
+      </c>
+      <c r="E15" s="202">
+        <v>1</v>
+      </c>
+      <c r="F15" s="202">
         <v>9218718088</v>
       </c>
-      <c r="G15" s="199" t="s">
+      <c r="G15" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="199" t="s">
+      <c r="H15" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="199" t="s">
+      <c r="I15" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="199">
+      <c r="J15" s="202">
         <v>9213290657</v>
       </c>
-      <c r="K15" s="199" t="s">
+      <c r="K15" s="204" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="199" t="s">
+      <c r="A16" s="202" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="199" t="s">
+      <c r="B16" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199">
-        <v>1</v>
-      </c>
-      <c r="F16" s="199">
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202">
+        <v>1</v>
+      </c>
+      <c r="F16" s="202">
         <v>9312784188</v>
       </c>
-      <c r="G16" s="199" t="s">
+      <c r="G16" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="199" t="s">
+      <c r="H16" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="199" t="s">
+      <c r="I16" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="199">
+      <c r="J16" s="202">
         <v>9219572227</v>
       </c>
-      <c r="K16" s="199" t="s">
+      <c r="K16" s="204" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199">
-        <v>1</v>
-      </c>
-      <c r="E17" s="199">
-        <v>1</v>
-      </c>
-      <c r="F17" s="199">
+      <c r="C17" s="204"/>
+      <c r="D17" s="204">
+        <v>1</v>
+      </c>
+      <c r="E17" s="204">
+        <v>1</v>
+      </c>
+      <c r="F17" s="204">
         <v>9213409406</v>
       </c>
-      <c r="G17" s="201" t="s">
+      <c r="G17" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="205" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="201" t="s">
+      <c r="I17" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="201">
+      <c r="J17" s="205">
         <v>9817075769</v>
       </c>
-      <c r="K17" s="199" t="s">
+      <c r="K17" s="204" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="199" t="s">
+      <c r="A18" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199">
-        <v>1</v>
-      </c>
-      <c r="F18" s="199">
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204">
+        <v>1</v>
+      </c>
+      <c r="F18" s="204">
         <v>9643417896</v>
       </c>
-      <c r="G18" s="199" t="s">
+      <c r="G18" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="199" t="s">
+      <c r="H18" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="199" t="s">
+      <c r="I18" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="199">
+      <c r="J18" s="204">
         <v>9062497559</v>
       </c>
-      <c r="K18" s="199" t="s">
+      <c r="K18" s="204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" s="195" customFormat="1" spans="1:11">
-      <c r="A19" s="202" t="s">
+    <row r="19" spans="1:11" s="158" customFormat="1" ht="26.25">
+      <c r="A19" s="206" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202">
-        <v>1</v>
-      </c>
-      <c r="E19" s="202">
-        <v>1</v>
-      </c>
-      <c r="F19" s="203">
+      <c r="C19" s="206"/>
+      <c r="D19" s="206">
+        <v>1</v>
+      </c>
+      <c r="E19" s="206">
+        <v>1</v>
+      </c>
+      <c r="F19" s="207">
         <v>9818723635</v>
       </c>
-      <c r="G19" s="203" t="s">
+      <c r="G19" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="203" t="s">
+      <c r="H19" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="203" t="s">
+      <c r="I19" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="203">
-        <v>89818723635</v>
-      </c>
-      <c r="K19" s="203" t="s">
+      <c r="J19" s="207">
+        <v>9818723635</v>
+      </c>
+      <c r="K19" s="207" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199">
-        <v>1</v>
-      </c>
-      <c r="E20" s="199">
-        <v>1</v>
-      </c>
-      <c r="F20" s="199">
+      <c r="C20" s="204"/>
+      <c r="D20" s="204">
+        <v>1</v>
+      </c>
+      <c r="E20" s="204">
+        <v>1</v>
+      </c>
+      <c r="F20" s="204">
         <v>9119020705</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="199" t="s">
+      <c r="H20" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="199" t="s">
+      <c r="I20" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="199">
+      <c r="J20" s="204">
         <v>9119020705</v>
       </c>
-      <c r="K20" s="199" t="s">
+      <c r="K20" s="204" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="199" t="s">
+      <c r="A21" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="199" t="s">
+      <c r="B21" s="204" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199">
-        <v>1</v>
-      </c>
-      <c r="E21" s="199">
-        <v>1</v>
-      </c>
-      <c r="F21" s="199">
+      <c r="C21" s="204"/>
+      <c r="D21" s="204">
+        <v>1</v>
+      </c>
+      <c r="E21" s="204">
+        <v>1</v>
+      </c>
+      <c r="F21" s="204">
         <v>9045564762</v>
       </c>
-      <c r="G21" s="199" t="s">
+      <c r="G21" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="H21" s="199" t="s">
+      <c r="H21" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="199" t="s">
+      <c r="I21" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="199">
+      <c r="J21" s="204">
         <v>9030941182</v>
       </c>
-      <c r="K21" s="199" t="s">
+      <c r="K21" s="204" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" s="194" customFormat="1" spans="1:11">
-      <c r="A22" s="199" t="s">
+    <row r="22" spans="1:11" s="157" customFormat="1">
+      <c r="A22" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="199" t="s">
+      <c r="B22" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199">
-        <v>1</v>
-      </c>
-      <c r="F22" s="199">
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204">
+        <v>1</v>
+      </c>
+      <c r="F22" s="204">
         <v>9657737525</v>
       </c>
-      <c r="G22" s="199" t="s">
+      <c r="G22" s="204" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="199" t="s">
+      <c r="H22" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="199" t="s">
+      <c r="I22" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="199">
+      <c r="J22" s="204">
         <v>9657737525</v>
       </c>
-      <c r="K22" s="199" t="s">
+      <c r="K22" s="204" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199">
-        <v>1</v>
-      </c>
-      <c r="E23" s="199">
-        <v>1</v>
-      </c>
-      <c r="F23" s="199">
+      <c r="C23" s="204"/>
+      <c r="D23" s="204">
+        <v>1</v>
+      </c>
+      <c r="E23" s="204">
+        <v>1</v>
+      </c>
+      <c r="F23" s="204">
         <v>9602689892</v>
       </c>
-      <c r="G23" s="199" t="s">
+      <c r="G23" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="199" t="s">
+      <c r="H23" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="199" t="s">
+      <c r="I23" s="204" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="199">
+      <c r="J23" s="204">
         <v>9219221848</v>
       </c>
-      <c r="K23" s="199" t="s">
+      <c r="K23" s="204" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="199" t="s">
+      <c r="A24" s="204" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="199" t="s">
+      <c r="B24" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="199">
-        <v>1</v>
-      </c>
-      <c r="D24" s="199">
-        <v>1</v>
-      </c>
-      <c r="E24" s="199">
-        <v>1</v>
-      </c>
-      <c r="F24" s="199">
+      <c r="C24" s="204">
+        <v>1</v>
+      </c>
+      <c r="D24" s="204">
+        <v>1</v>
+      </c>
+      <c r="E24" s="204">
+        <v>1</v>
+      </c>
+      <c r="F24" s="204">
         <v>9817032760</v>
       </c>
-      <c r="G24" s="199" t="s">
+      <c r="G24" s="204" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="199" t="s">
+      <c r="H24" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="199" t="s">
+      <c r="I24" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="199">
+      <c r="J24" s="204">
         <v>9111407222</v>
       </c>
-      <c r="K24" s="199" t="s">
+      <c r="K24" s="204" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" s="195" customFormat="1" spans="1:11">
-      <c r="A25" s="202" t="s">
+    <row r="25" spans="1:11" s="158" customFormat="1">
+      <c r="A25" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="202" t="s">
+      <c r="B25" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="202">
-        <v>1</v>
-      </c>
-      <c r="D25" s="202">
-        <v>1</v>
-      </c>
-      <c r="E25" s="202">
-        <v>1</v>
-      </c>
-      <c r="F25" s="203">
+      <c r="C25" s="206">
+        <v>1</v>
+      </c>
+      <c r="D25" s="206">
+        <v>1</v>
+      </c>
+      <c r="E25" s="206">
+        <v>1</v>
+      </c>
+      <c r="F25" s="207">
         <v>9213026506</v>
       </c>
-      <c r="G25" s="203" t="s">
+      <c r="G25" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="203" t="s">
+      <c r="H25" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="203" t="s">
+      <c r="I25" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="203">
-        <v>89213026506</v>
-      </c>
-      <c r="K25" s="203" t="s">
+      <c r="J25" s="207">
+        <v>9213026506</v>
+      </c>
+      <c r="K25" s="207" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="199" t="s">
+      <c r="A26" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="199">
-        <v>1</v>
-      </c>
-      <c r="D26" s="199">
-        <v>1</v>
-      </c>
-      <c r="E26" s="199">
-        <v>1</v>
-      </c>
-      <c r="F26" s="199">
+      <c r="C26" s="204">
+        <v>1</v>
+      </c>
+      <c r="D26" s="204">
+        <v>1</v>
+      </c>
+      <c r="E26" s="204">
+        <v>1</v>
+      </c>
+      <c r="F26" s="204">
         <v>9819793731</v>
       </c>
-      <c r="G26" s="204" t="s">
+      <c r="G26" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="204" t="s">
+      <c r="H26" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="204" t="s">
+      <c r="I26" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="199">
+      <c r="J26" s="204">
         <v>9118110171</v>
       </c>
-      <c r="K26" s="199" t="s">
+      <c r="K26" s="204" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" s="195" customFormat="1" spans="1:11">
-      <c r="A27" s="205" t="s">
+    <row r="27" spans="1:11" s="158" customFormat="1">
+      <c r="A27" s="206" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="205" t="s">
+      <c r="B27" s="206" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205">
-        <v>1</v>
-      </c>
-      <c r="E27" s="205">
-        <v>1</v>
-      </c>
-      <c r="F27" s="206">
+      <c r="C27" s="206"/>
+      <c r="D27" s="206">
+        <v>1</v>
+      </c>
+      <c r="E27" s="206">
+        <v>1</v>
+      </c>
+      <c r="F27" s="209">
         <v>9219583612</v>
       </c>
-      <c r="G27" s="207" t="s">
+      <c r="G27" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="207" t="s">
+      <c r="H27" s="210" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="207" t="s">
+      <c r="I27" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="210">
+      <c r="J27" s="211">
         <v>9213827100</v>
       </c>
-      <c r="K27" s="207" t="s">
+      <c r="K27" s="210" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" s="195" customFormat="1" spans="1:11">
-      <c r="A28" s="208" t="s">
+    <row r="28" spans="1:11" s="158" customFormat="1" ht="26.25">
+      <c r="A28" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="208" t="s">
+      <c r="B28" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208">
-        <v>1</v>
-      </c>
-      <c r="E28" s="208">
-        <v>1</v>
-      </c>
-      <c r="F28" s="208">
+      <c r="C28" s="212"/>
+      <c r="D28" s="212">
+        <v>1</v>
+      </c>
+      <c r="E28" s="212">
+        <v>1</v>
+      </c>
+      <c r="F28" s="212">
         <v>9200043637</v>
       </c>
-      <c r="G28" s="208" t="s">
+      <c r="G28" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="H28" s="208" t="s">
+      <c r="H28" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="208" t="s">
+      <c r="I28" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="J28" s="211">
+      <c r="J28" s="213">
         <v>9914876053</v>
       </c>
-      <c r="K28" s="208" t="s">
+      <c r="K28" s="212" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29" s="195" customFormat="1" spans="1:11">
-      <c r="A29" s="208" t="s">
+    <row r="29" spans="1:11" s="158" customFormat="1">
+      <c r="A29" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="208" t="s">
+      <c r="B29" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="208"/>
-      <c r="D29" s="208">
-        <v>1</v>
-      </c>
-      <c r="E29" s="208">
-        <v>1</v>
-      </c>
-      <c r="F29" s="208">
+      <c r="C29" s="212"/>
+      <c r="D29" s="212">
+        <v>1</v>
+      </c>
+      <c r="E29" s="212">
+        <v>1</v>
+      </c>
+      <c r="F29" s="212">
         <v>9310039023</v>
       </c>
-      <c r="G29" s="208" t="s">
+      <c r="G29" s="212" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="208" t="s">
+      <c r="H29" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="208" t="s">
+      <c r="I29" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="211">
+      <c r="J29" s="213">
         <v>9117539023</v>
       </c>
-      <c r="K29" s="208" t="s">
+      <c r="K29" s="212" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="204" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="199" t="s">
+      <c r="B30" s="204" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199">
-        <v>1</v>
-      </c>
-      <c r="F30" s="199">
+      <c r="C30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="204">
+        <v>1</v>
+      </c>
+      <c r="F30" s="204">
         <v>9206704460</v>
       </c>
-      <c r="G30" s="199" t="s">
+      <c r="G30" s="204" t="s">
         <v>146</v>
       </c>
-      <c r="H30" s="199" t="s">
+      <c r="H30" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="199" t="s">
+      <c r="I30" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="199">
+      <c r="J30" s="204">
         <v>9112524414</v>
       </c>
-      <c r="K30" s="199" t="s">
+      <c r="K30" s="204" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="199" t="s">
+      <c r="A31" s="204" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="199" t="s">
+      <c r="B31" s="204" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199">
-        <v>1</v>
-      </c>
-      <c r="F31" s="199">
+      <c r="C31" s="204"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204">
+        <v>1</v>
+      </c>
+      <c r="F31" s="204">
         <v>9216469348</v>
       </c>
-      <c r="G31" s="199" t="s">
+      <c r="G31" s="204" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="199" t="s">
+      <c r="H31" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="199" t="s">
+      <c r="I31" s="204" t="s">
         <v>152</v>
       </c>
-      <c r="J31" s="199">
+      <c r="J31" s="204">
         <v>9219509892</v>
       </c>
-      <c r="K31" s="199" t="s">
+      <c r="K31" s="204" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="199" t="s">
+    <row r="32" spans="1:11" ht="26.25">
+      <c r="A32" s="204" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="199" t="s">
+      <c r="B32" s="204" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
-      <c r="E32" s="199">
-        <v>1</v>
-      </c>
-      <c r="F32" s="199">
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="204">
+        <v>1</v>
+      </c>
+      <c r="F32" s="204">
         <v>9956241056</v>
       </c>
-      <c r="G32" s="199" t="s">
+      <c r="G32" s="204" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="199" t="s">
+      <c r="H32" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="199" t="s">
+      <c r="I32" s="204" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="199">
+      <c r="J32" s="204">
         <v>9219411781</v>
       </c>
-      <c r="K32" s="199" t="s">
+      <c r="K32" s="204" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="199" t="s">
+      <c r="B33" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="199"/>
-      <c r="D33" s="199"/>
-      <c r="E33" s="199">
-        <v>1</v>
-      </c>
-      <c r="F33" s="199">
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204">
+        <v>1</v>
+      </c>
+      <c r="F33" s="204">
         <v>9046031493</v>
       </c>
-      <c r="G33" s="199" t="s">
+      <c r="G33" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="199" t="s">
+      <c r="H33" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="199" t="s">
+      <c r="I33" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="199">
+      <c r="J33" s="204">
         <v>9046031493</v>
       </c>
-      <c r="K33" s="199" t="s">
+      <c r="K33" s="204" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="199" t="s">
+      <c r="A34" s="204" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="199" t="s">
+      <c r="B34" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199">
-        <v>1</v>
-      </c>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="199"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204">
+        <v>1</v>
+      </c>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="204"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="199" t="s">
+      <c r="A35" s="204" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="199" t="s">
+      <c r="B35" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199">
-        <v>1</v>
-      </c>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
-    </row>
-    <row r="41" ht="14.4"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204">
+        <v>1</v>
+      </c>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
@@ -5388,7 +4889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
@@ -5396,7 +4897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="20" t="s">
         <v>631</v>
       </c>
@@ -5426,7 +4927,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="20" t="s">
         <v>54</v>
       </c>
@@ -5434,7 +4935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="36" t="s">
         <v>61</v>
       </c>
@@ -5453,7 +4954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="20" t="s">
         <v>72</v>
       </c>
@@ -5472,7 +4973,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="18" t="s">
         <v>128</v>
       </c>
@@ -5480,7 +4981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="20" t="s">
         <v>87</v>
       </c>
@@ -5488,7 +4989,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="20" t="s">
         <v>635</v>
       </c>
@@ -5518,7 +5019,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
         <v>108</v>
       </c>
@@ -5537,7 +5038,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="37" t="s">
         <v>119</v>
       </c>
@@ -5545,7 +5046,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="20" t="s">
         <v>123</v>
       </c>
@@ -5553,7 +5054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -5563,32 +5064,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XEF35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66666666666667" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="40.6666666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="8" customWidth="1"/>
     <col min="2" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="35.5555555555556" style="8" customWidth="1"/>
-    <col min="5" max="16360" width="9.66666666666667" style="8"/>
+    <col min="4" max="4" width="35.5703125" style="8" customWidth="1"/>
+    <col min="5" max="16360" width="9.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:6">
+    <row r="1" spans="1:6" ht="60">
       <c r="A1" s="24" t="s">
         <v>449</v>
       </c>
@@ -5604,7 +5102,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>640</v>
       </c>
@@ -5618,7 +5116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:6">
+    <row r="3" spans="1:6" s="11" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>641</v>
       </c>
@@ -5634,7 +5132,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>642</v>
       </c>
@@ -5648,7 +5146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>643</v>
       </c>
@@ -5662,7 +5160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>644</v>
       </c>
@@ -5676,7 +5174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>645</v>
       </c>
@@ -5690,7 +5188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>646</v>
       </c>
@@ -5704,7 +5202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>647</v>
       </c>
@@ -5718,7 +5216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>648</v>
       </c>
@@ -5732,7 +5230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>649</v>
       </c>
@@ -5746,7 +5244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
         <v>650</v>
       </c>
@@ -5760,7 +5258,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>652</v>
       </c>
@@ -5774,7 +5272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>653</v>
       </c>
@@ -5788,7 +5286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>654</v>
       </c>
@@ -5802,7 +5300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>655</v>
       </c>
@@ -5844,7 +5342,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" s="23" customFormat="1" spans="1:4">
+    <row r="19" spans="1:4" s="23" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>658</v>
       </c>
@@ -5900,7 +5398,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:4">
+    <row r="23" spans="1:4" s="8" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>662</v>
       </c>
@@ -5942,7 +5440,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" s="23" customFormat="1" spans="1:4">
+    <row r="26" spans="1:4" s="23" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>665</v>
       </c>
@@ -5970,7 +5468,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="28" s="23" customFormat="1" spans="1:4">
+    <row r="28" spans="1:4" s="23" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>668</v>
       </c>
@@ -5984,7 +5482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" s="23" customFormat="1" spans="1:4">
+    <row r="29" spans="1:4" s="23" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>669</v>
       </c>
@@ -6085,31 +5583,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.8888888888889" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.4444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.2222222222222" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.1111111111111" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="18.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6129,7 +5625,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>680</v>
       </c>
@@ -6139,7 +5635,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" ht="15.6" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -6162,7 +5658,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" ht="15.6" spans="1:9">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -6185,7 +5681,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" ht="15.6" spans="1:9">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -6208,7 +5704,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" ht="15.6" spans="1:9">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -6231,7 +5727,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" ht="15.6" spans="1:9">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
@@ -6254,7 +5750,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" ht="15.6" spans="1:9">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="8" t="s">
         <v>66</v>
       </c>
@@ -6277,7 +5773,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" ht="15.6" spans="1:9">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -6300,7 +5796,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" ht="15.6" spans="1:9">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="8" t="s">
         <v>78</v>
       </c>
@@ -6323,7 +5819,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" ht="15.6" spans="1:9">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="8" t="s">
         <v>87</v>
       </c>
@@ -6346,7 +5842,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" ht="15.6" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="8" t="s">
         <v>92</v>
       </c>
@@ -6369,7 +5865,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" ht="15.6" spans="1:9">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -6392,7 +5888,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" ht="15.6" spans="1:9">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="8" t="s">
         <v>104</v>
       </c>
@@ -6415,7 +5911,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" ht="15.6" spans="1:9">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="8" t="s">
         <v>108</v>
       </c>
@@ -6438,7 +5934,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" ht="15.6" spans="1:9">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="8" t="s">
         <v>110</v>
       </c>
@@ -6461,7 +5957,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" ht="15.6" spans="1:9">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="8" t="s">
         <v>115</v>
       </c>
@@ -6484,7 +5980,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" ht="15.6" spans="1:6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="8" t="s">
         <v>123</v>
       </c>
@@ -6504,21 +6000,21 @@
         <v>431</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="13.2" spans="4:4">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="12.75">
       <c r="D21" s="16"/>
     </row>
-    <row r="22" s="4" customFormat="1" ht="13.2" spans="4:4">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="12.75">
       <c r="D22" s="16"/>
     </row>
-    <row r="23" s="4" customFormat="1" ht="13.2" spans="4:4">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="12.75">
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:9">
       <c r="A24" s="17" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
@@ -6538,7 +6034,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -6558,7 +6054,7 @@
         <v>4022245584</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="8" t="s">
         <v>35</v>
       </c>
@@ -6578,7 +6074,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
@@ -6598,7 +6094,7 @@
         <v>4022381251</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -6618,7 +6114,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
@@ -6638,7 +6134,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="8" t="s">
         <v>61</v>
       </c>
@@ -6658,7 +6154,7 @@
         <v>4002634542</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="8" t="s">
         <v>83</v>
       </c>
@@ -6678,7 +6174,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:6">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="11" t="s">
         <v>96</v>
       </c>
@@ -6698,7 +6194,7 @@
         <v>4020691039</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:6">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="8" t="s">
         <v>302</v>
       </c>
@@ -6718,7 +6214,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:6">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="11" t="s">
         <v>119</v>
       </c>
@@ -6738,7 +6234,7 @@
         <v>4020684651</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:6">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="18" t="s">
         <v>128</v>
       </c>
@@ -6758,19 +6254,19 @@
         <v>4020668443</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:6">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:6">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" ht="15.6" spans="1:4">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="22" t="s">
         <v>684</v>
       </c>
@@ -6778,7 +6274,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" ht="15.6" spans="1:4">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="4" t="s">
         <v>685</v>
       </c>
@@ -6790,7 +6286,7 @@
       </c>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" ht="15.6" spans="1:4">
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="4">
         <v>89217427984</v>
       </c>
@@ -6798,19 +6294,19 @@
       <c r="C41" s="4"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" ht="15.6" spans="1:4">
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" ht="15.6" spans="1:4">
+    <row r="43" spans="1:6" ht="15.75">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" ht="15.6" spans="1:4">
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6818,24 +6314,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="10.8888888888889"/>
-    <col min="3" max="3" width="9.66666666666667"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875"/>
+    <col min="3" max="3" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6858,7 +6352,7 @@
       </c>
       <c r="C2">
         <f>3300+4800+300+2062.24+1417.79</f>
-        <v>11880.03</v>
+        <v>11880.029999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6907,994 +6401,989 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="187"/>
-    <col min="2" max="2" width="30.287037037037" style="188" customWidth="1"/>
-    <col min="3" max="3" width="24.4259259259259" style="188" customWidth="1"/>
-    <col min="4" max="4" width="47.287037037037" style="188" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="187"/>
+    <col min="1" max="1" width="9" style="150"/>
+    <col min="2" max="2" width="30.28515625" style="151" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="151" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="151" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="153" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="153" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:4">
-      <c r="A2" s="191">
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" s="154">
         <v>45045</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="190" t="s">
+      <c r="D2" s="153" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:4">
-      <c r="A3" s="191">
+    <row r="3" spans="1:4" ht="45">
+      <c r="A3" s="154">
         <v>45046</v>
       </c>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="190" t="s">
+      <c r="D3" s="153" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:4">
-      <c r="A4" s="191">
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="154">
         <v>45047</v>
       </c>
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="153" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:4">
-      <c r="A5" s="191">
+    <row r="5" spans="1:4" ht="45">
+      <c r="A5" s="154">
         <v>45048</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="190"/>
-    </row>
-    <row r="6" ht="43.2" spans="1:4">
-      <c r="A6" s="191">
+      <c r="D5" s="153"/>
+    </row>
+    <row r="6" spans="1:4" ht="45">
+      <c r="A6" s="154">
         <v>45052</v>
       </c>
-      <c r="B6" s="190"/>
-      <c r="C6" s="192" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="192" t="s">
+      <c r="D6" s="155" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:4">
-      <c r="A7" s="191">
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="154">
         <v>45053</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="190" t="s">
+      <c r="D7" s="153" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:4">
-      <c r="A8" s="191">
+    <row r="8" spans="1:4" ht="45">
+      <c r="A8" s="154">
         <v>45054</v>
       </c>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="153" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:4">
-      <c r="A9" s="191">
+    <row r="9" spans="1:4" ht="45">
+      <c r="A9" s="154">
         <v>45055</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="190" t="s">
+      <c r="C9" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="153" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:4">
-      <c r="A10" s="191">
+    <row r="10" spans="1:4" ht="45">
+      <c r="A10" s="154">
         <v>45056</v>
       </c>
-      <c r="B10" s="190" t="s">
+      <c r="B10" s="153" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="153" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="190"/>
+      <c r="D10" s="153"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="189"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="192"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="155"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85185185185185" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.13888888888889" style="177" customWidth="1"/>
-    <col min="2" max="2" width="29" style="177" customWidth="1"/>
-    <col min="3" max="3" width="14.712962962963" style="177" customWidth="1"/>
-    <col min="4" max="4" width="10.4259259259259" style="177" customWidth="1"/>
-    <col min="5" max="5" width="17.8518518518519" style="177" customWidth="1"/>
-    <col min="6" max="6" width="7.85185185185185" style="177" customWidth="1"/>
-    <col min="7" max="16384" width="7.85185185185185" style="177"/>
+    <col min="1" max="1" width="4.140625" style="140" customWidth="1"/>
+    <col min="2" max="2" width="29" style="140" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="140" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="140" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="140" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="140" customWidth="1"/>
+    <col min="7" max="16384" width="7.85546875" style="140"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="178"/>
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="141"/>
+      <c r="B1" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="179" t="s">
+      <c r="D1" s="142" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="178"/>
-      <c r="B2" s="180" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="141"/>
+      <c r="B2" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="182" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="145" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="180" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" s="143" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="181">
-        <v>1</v>
-      </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179" t="s">
+      <c r="C3" s="144">
+        <v>1</v>
+      </c>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="183" t="s">
+    <row r="4" spans="1:6">
+      <c r="B4" s="146" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="177">
+      <c r="F4" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="180" t="s">
+    <row r="5" spans="1:6">
+      <c r="B5" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="181">
-        <v>1</v>
-      </c>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179" t="s">
+      <c r="C5" s="144">
+        <v>1</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="177">
+      <c r="F5" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="180" t="s">
+    <row r="6" spans="1:6">
+      <c r="B6" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="181">
-        <v>1</v>
-      </c>
-      <c r="E6" s="179" t="s">
+      <c r="C6" s="144">
+        <v>1</v>
+      </c>
+      <c r="E6" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="180" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="181">
-        <v>1</v>
-      </c>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179" t="s">
+      <c r="C7" s="144">
+        <v>1</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="180" t="s">
+      <c r="F7" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="177" t="s">
+      <c r="C8" s="144"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="140" t="s">
         <v>206</v>
       </c>
-      <c r="F8" s="177">
+      <c r="F8" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B9" s="180" t="s">
+    <row r="9" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B9" s="143" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="177" t="s">
+      <c r="C9" s="144"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="177">
+      <c r="F9" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="13.9" customHeight="1" spans="2:6">
-      <c r="B10" s="183" t="s">
+    <row r="10" spans="1:6" ht="13.9" customHeight="1">
+      <c r="B10" s="146" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="181">
-        <v>1</v>
-      </c>
-      <c r="E10" s="177" t="s">
+      <c r="C10" s="144">
+        <v>1</v>
+      </c>
+      <c r="E10" s="140" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="177">
+      <c r="F10" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="180" t="s">
+    <row r="11" spans="1:6">
+      <c r="B11" s="143" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="177" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="140" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="177" t="s">
+      <c r="F11" s="140" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="180" t="s">
+    <row r="12" spans="1:6">
+      <c r="B12" s="143" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="181"/>
-      <c r="E12" s="184" t="s">
+      <c r="C12" s="144"/>
+      <c r="E12" s="147" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="177">
+      <c r="F12" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="180" t="s">
+    <row r="13" spans="1:6">
+      <c r="B13" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="180" t="s">
+      <c r="C13" s="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="180" t="s">
+      <c r="C14" s="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="181"/>
-      <c r="E15" s="179" t="s">
+      <c r="C15" s="144"/>
+      <c r="E15" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="140">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="180" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="181"/>
-      <c r="E16" s="177" t="s">
+      <c r="C16" s="144"/>
+      <c r="E16" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="140">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="180" t="s">
+    <row r="17" spans="1:6">
+      <c r="B17" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="181">
-        <v>1</v>
-      </c>
-      <c r="E17" s="177" t="s">
+      <c r="C17" s="144">
+        <v>1</v>
+      </c>
+      <c r="E17" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="140">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="180" t="s">
+    <row r="18" spans="1:6">
+      <c r="B18" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="E18" s="177" t="s">
+      <c r="C18" s="144"/>
+      <c r="E18" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="177">
+      <c r="F18" s="140">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="180" t="s">
+    <row r="19" spans="1:6">
+      <c r="B19" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="181">
-        <v>1</v>
-      </c>
-      <c r="E19" s="177" t="s">
+      <c r="C19" s="144">
+        <v>1</v>
+      </c>
+      <c r="E19" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="177">
+      <c r="F19" s="140">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="185"/>
-      <c r="B20" s="180" t="s">
+      <c r="A20" s="148"/>
+      <c r="B20" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="181">
-        <v>1</v>
-      </c>
-      <c r="E20" s="177" t="s">
+      <c r="C20" s="144">
+        <v>1</v>
+      </c>
+      <c r="E20" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="177">
+      <c r="F20" s="140">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="185"/>
-      <c r="B21" s="180" t="s">
+      <c r="A21" s="148"/>
+      <c r="B21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="181">
-        <v>1</v>
-      </c>
-      <c r="E21" s="177" t="s">
+      <c r="C21" s="144">
+        <v>1</v>
+      </c>
+      <c r="E21" s="140" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="177">
+      <c r="F21" s="140">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="185"/>
-      <c r="B22" s="180" t="s">
+      <c r="A22" s="148"/>
+      <c r="B22" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="181">
-        <v>1</v>
-      </c>
-      <c r="E22" s="177" t="s">
+      <c r="C22" s="144">
+        <v>1</v>
+      </c>
+      <c r="E22" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="177">
+      <c r="F22" s="140">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="180" t="s">
+    <row r="23" spans="1:6">
+      <c r="B23" s="143" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="181">
-        <v>1</v>
-      </c>
-      <c r="E23" s="177" t="s">
+      <c r="C23" s="144">
+        <v>1</v>
+      </c>
+      <c r="E23" s="140" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="177">
+      <c r="F23" s="140">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="180" t="s">
+    <row r="24" spans="1:6">
+      <c r="B24" s="143" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="181"/>
-      <c r="E24" s="177" t="s">
+      <c r="C24" s="144"/>
+      <c r="E24" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="177" t="s">
+      <c r="F24" s="140" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="180" t="s">
+    <row r="25" spans="1:6">
+      <c r="B25" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="181"/>
-      <c r="E25" s="177" t="s">
+      <c r="C25" s="144"/>
+      <c r="E25" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="F25" s="177">
+      <c r="F25" s="140">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="180" t="s">
+    <row r="26" spans="1:6">
+      <c r="B26" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="181">
-        <v>1</v>
-      </c>
-      <c r="E26" s="177" t="s">
+      <c r="C26" s="144">
+        <v>1</v>
+      </c>
+      <c r="E26" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="F26" s="177" t="s">
+      <c r="F26" s="140" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="180" t="s">
+    <row r="27" spans="1:6">
+      <c r="B27" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="180" t="s">
+      <c r="C27" s="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="181"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="180" t="s">
+      <c r="C28" s="144"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="181" t="s">
+      <c r="C29" s="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="144" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="181"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="180" t="s">
+      <c r="C30" s="144"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="C31" s="181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="180" t="s">
+      <c r="C31" s="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="181"/>
+      <c r="C32" s="144"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="181"/>
+      <c r="C33" s="144"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="181"/>
+      <c r="C34" s="144"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="181">
+      <c r="C35" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="181"/>
+      <c r="C36" s="144"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="181">
+      <c r="C37" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="181">
+      <c r="C38" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="181"/>
+      <c r="C39" s="144"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="180" t="s">
+      <c r="B40" s="143" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="181"/>
+      <c r="C40" s="144"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="181">
+      <c r="C41" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="180" t="s">
+      <c r="B42" s="143" t="s">
         <v>253</v>
       </c>
-      <c r="C42" s="181">
+      <c r="C42" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="143" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="181">
+      <c r="C43" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="180" t="s">
+      <c r="B44" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="181">
+      <c r="C44" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="180" t="s">
+      <c r="B45" s="143" t="s">
         <v>256</v>
       </c>
-      <c r="C45" s="181">
+      <c r="C45" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="180" t="s">
+      <c r="B46" s="143" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="181">
+      <c r="C46" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="143" t="s">
         <v>258</v>
       </c>
-      <c r="C47" s="181">
+      <c r="C47" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="180" t="s">
+      <c r="B48" s="143" t="s">
         <v>259</v>
       </c>
-      <c r="C48" s="181"/>
+      <c r="C48" s="144"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="183" t="s">
+      <c r="B49" s="146" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="181">
+      <c r="C49" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="C50" s="181">
+      <c r="C50" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="C51" s="181"/>
+      <c r="C51" s="144"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="180" t="s">
+      <c r="B52" s="143" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="181"/>
+      <c r="C52" s="144"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="186" t="s">
+      <c r="B53" s="149" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="181"/>
+      <c r="C53" s="144"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="180" t="s">
+      <c r="B54" s="143" t="s">
         <v>265</v>
       </c>
-      <c r="C54" s="181"/>
+      <c r="C54" s="144"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="180" t="s">
+      <c r="B55" s="143" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="181">
+      <c r="C55" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="180" t="s">
+      <c r="B56" s="143" t="s">
         <v>267</v>
       </c>
-      <c r="C56" s="181">
+      <c r="C56" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="180" t="s">
+      <c r="B57" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="C57" s="181"/>
+      <c r="C57" s="144"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="180" t="s">
+      <c r="B58" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="C58" s="181">
+      <c r="C58" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="181" t="s">
+      <c r="B59" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="C59" s="181">
+      <c r="C59" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="180" t="s">
+      <c r="B60" s="143" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="181"/>
+      <c r="C60" s="144"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="180" t="s">
+      <c r="B61" s="143" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="181">
+      <c r="C61" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="180" t="s">
+      <c r="B62" s="143" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="181"/>
+      <c r="C62" s="144"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="180" t="s">
+      <c r="B63" s="143" t="s">
         <v>274</v>
       </c>
-      <c r="C63" s="181">
+      <c r="C63" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="180" t="s">
+      <c r="B64" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="C64" s="181"/>
+      <c r="C64" s="144"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="180" t="s">
+      <c r="B65" s="143" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="181"/>
+      <c r="C65" s="144"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="180" t="s">
+      <c r="B66" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="C66" s="181">
+      <c r="C66" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="181" t="s">
+      <c r="B67" s="144" t="s">
         <v>278</v>
       </c>
-      <c r="C67" s="181">
+      <c r="C67" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="180" t="s">
+      <c r="B68" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="C68" s="181">
+      <c r="C68" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="180" t="s">
+      <c r="B69" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="C69" s="181">
+      <c r="C69" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="180" t="s">
+      <c r="B70" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="C70" s="181">
+      <c r="C70" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="180" t="s">
+      <c r="B71" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="181">
+      <c r="C71" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="180" t="s">
+      <c r="B72" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="181">
+      <c r="C72" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="180" t="s">
+      <c r="B73" s="143" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="181"/>
+      <c r="C73" s="144"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="180" t="s">
+      <c r="B74" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="181">
+      <c r="C74" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="180" t="s">
+      <c r="B75" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C75" s="181">
+      <c r="C75" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="180" t="s">
+      <c r="B76" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="181">
+      <c r="C76" s="144">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="183" t="s">
+      <c r="B77" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="C77" s="181"/>
+      <c r="C77" s="144"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="181" t="s">
+      <c r="B78" s="144" t="s">
         <v>289</v>
       </c>
-      <c r="C78" s="181"/>
+      <c r="C78" s="144"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="177" t="s">
+      <c r="B79" s="140" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="182" t="s">
+      <c r="C79" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="145" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="177" t="s">
+      <c r="B83" s="140" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="177">
+      <c r="C83" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="177" t="s">
+      <c r="B84" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="177">
+      <c r="C84" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="177" t="s">
+      <c r="B85" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="C85" s="177">
+      <c r="C85" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="177" t="s">
+      <c r="B86" s="140" t="s">
         <v>294</v>
       </c>
-      <c r="C86" s="177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="177" t="s">
+      <c r="C86" s="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="140" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="177" t="s">
+      <c r="B88" s="140" t="s">
         <v>296</v>
       </c>
-      <c r="C88" s="177">
+      <c r="C88" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="177" t="s">
+      <c r="B89" s="140" t="s">
         <v>297</v>
       </c>
-      <c r="C89" s="177">
+      <c r="C89" s="140">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.2222222222222" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7914,7 +7403,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -7953,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -7967,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -7981,7 +7470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
@@ -7992,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="8" t="s">
         <v>42</v>
       </c>
@@ -8009,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
@@ -8023,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -8037,7 +7526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -8079,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
         <v>72</v>
       </c>
@@ -8110,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
         <v>83</v>
       </c>
@@ -8138,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>92</v>
       </c>
@@ -8146,7 +7635,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="38" t="s">
         <v>96</v>
       </c>
@@ -8161,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
         <v>98</v>
       </c>
@@ -8172,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
         <v>302</v>
       </c>
@@ -8183,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
         <v>104</v>
       </c>
@@ -8194,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
         <v>108</v>
       </c>
@@ -8205,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -8216,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="8" t="s">
         <v>115</v>
       </c>
@@ -8248,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
         <v>123</v>
       </c>
@@ -8262,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="1:4">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="39" t="s">
         <v>128</v>
       </c>
@@ -8276,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="1:5">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="32" t="s">
         <v>133</v>
       </c>
@@ -8288,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:5">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="32" t="s">
         <v>141</v>
       </c>
@@ -8300,7 +7789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" s="34" t="s">
         <v>144</v>
       </c>
@@ -8312,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:6">
       <c r="A32" s="34" t="s">
         <v>303</v>
       </c>
@@ -8337,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:6">
       <c r="A34" s="34" t="s">
         <v>154</v>
       </c>
@@ -8346,7 +7835,7 @@
       </c>
       <c r="C34" s="34"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:6">
       <c r="A35" s="34" t="s">
         <v>159</v>
       </c>
@@ -8355,25 +7844,24 @@
       </c>
       <c r="C35" s="34"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="176" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="139" t="s">
         <v>304</v>
       </c>
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="176">
+      <c r="C36" s="139">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8383,94 +7871,94 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.44444444444444" style="58" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="58" customWidth="1"/>
     <col min="2" max="2" width="18" style="58" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="58"/>
-    <col min="4" max="4" width="11.1111111111111" style="58" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="58" customWidth="1"/>
-    <col min="6" max="6" width="29.8888888888889" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.44444444444444" style="58" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="58"/>
+    <col min="4" max="4" width="11.140625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="58" customWidth="1"/>
     <col min="8" max="8" width="11" style="58" customWidth="1"/>
-    <col min="9" max="9" width="3.66666666666667" style="58" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" style="58"/>
-    <col min="11" max="11" width="17.8888888888889" style="58" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="58" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="58"/>
+    <col min="11" max="11" width="17.85546875" style="58" customWidth="1"/>
     <col min="12" max="12" width="5" style="58" customWidth="1"/>
-    <col min="13" max="13" width="12.5555555555556" style="58" customWidth="1"/>
-    <col min="14" max="256" width="8.33333333333333" style="58"/>
+    <col min="13" max="13" width="12.5703125" style="58" customWidth="1"/>
+    <col min="14" max="256" width="8.28515625" style="58"/>
     <col min="257" max="16384" width="8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:13">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A1" s="160" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-    </row>
-    <row r="2" ht="51.9" customHeight="1" spans="1:13">
-      <c r="A2" s="128" t="s">
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+    </row>
+    <row r="2" spans="1:14" ht="51.95" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="129" t="s">
+      <c r="E2" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="107" t="s">
         <v>312</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="109" t="s">
         <v>314</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="107" t="s">
         <v>316</v>
       </c>
-      <c r="M2" s="164" t="s">
+      <c r="M2" s="130" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="3" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A3" s="132">
-        <v>1</v>
-      </c>
-      <c r="B3" s="133" t="str">
+    <row r="3" spans="1:14" s="91" customFormat="1" ht="15.75">
+      <c r="A3" s="110">
+        <v>1</v>
+      </c>
+      <c r="B3" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B5," ",'Информация для бумаг'!C5)</f>
         <v>Аудах Никита</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="112">
         <f>'Информация для бумаг'!P5</f>
         <v>40100</v>
       </c>
@@ -8482,42 +7970,42 @@
         <f>'Информация для бумаг'!I5</f>
         <v>7</v>
       </c>
-      <c r="F3" s="135" t="str">
+      <c r="F3" s="113" t="str">
         <f>'Информация для бумаг'!K5</f>
         <v>Ул. Мытнинская, 5/2-5</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="I3" s="138">
-        <v>1</v>
-      </c>
-      <c r="J3" s="165" t="s">
+      <c r="I3" s="115">
+        <v>1</v>
+      </c>
+      <c r="J3" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="K3" s="166" t="s">
+      <c r="K3" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="L3" s="167">
+      <c r="L3" s="133">
         <v>117</v>
       </c>
-      <c r="M3" s="167" t="s">
+      <c r="M3" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="N3" s="168"/>
-    </row>
-    <row r="4" s="109" customFormat="1" ht="21" customHeight="1" spans="1:14">
-      <c r="A4" s="138">
+      <c r="N3" s="134"/>
+    </row>
+    <row r="4" spans="1:14" s="91" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="115">
         <v>2</v>
       </c>
-      <c r="B4" s="133" t="str">
+      <c r="B4" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B6," ",'Информация для бумаг'!C6)</f>
         <v>Башилов Константин</v>
       </c>
-      <c r="C4" s="134">
+      <c r="C4" s="112">
         <f>'Информация для бумаг'!P6</f>
         <v>39367</v>
       </c>
@@ -8529,38 +8017,38 @@
         <f>'Информация для бумаг'!I6</f>
         <v>8</v>
       </c>
-      <c r="F4" s="135" t="str">
+      <c r="F4" s="113" t="str">
         <f>'Информация для бумаг'!K6</f>
         <v>Ул. Пестеля, 13-15-108</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="132">
+      <c r="H4" s="174"/>
+      <c r="I4" s="110">
         <v>2</v>
       </c>
-      <c r="J4" s="169" t="s">
+      <c r="J4" s="135" t="s">
         <v>323</v>
       </c>
-      <c r="K4" s="166" t="s">
+      <c r="K4" s="132" t="s">
         <v>324</v>
       </c>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167" t="s">
+      <c r="L4" s="133"/>
+      <c r="M4" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="N4" s="168"/>
-    </row>
-    <row r="5" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A5" s="132">
+      <c r="N4" s="134"/>
+    </row>
+    <row r="5" spans="1:14" s="91" customFormat="1" ht="15.75">
+      <c r="A5" s="110">
         <v>3</v>
       </c>
-      <c r="B5" s="133" t="str">
+      <c r="B5" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B7," ",'Информация для бумаг'!C7)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="112">
         <f>'Информация для бумаг'!P7</f>
         <v>39857</v>
       </c>
@@ -8572,40 +8060,40 @@
         <f>'Информация для бумаг'!I7</f>
         <v>7</v>
       </c>
-      <c r="F5" s="135" t="str">
+      <c r="F5" s="113" t="str">
         <f>'Информация для бумаг'!K7</f>
         <v>Пр. Ветеранов, 3-167</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H5" s="139"/>
-      <c r="I5" s="138">
+      <c r="H5" s="174"/>
+      <c r="I5" s="115">
         <v>3</v>
       </c>
-      <c r="J5" s="170" t="s">
+      <c r="J5" s="136" t="s">
         <v>326</v>
       </c>
-      <c r="K5" s="166" t="s">
+      <c r="K5" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="L5" s="167">
+      <c r="L5" s="133">
         <v>117</v>
       </c>
-      <c r="M5" s="167" t="s">
+      <c r="M5" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="N5" s="168"/>
-    </row>
-    <row r="6" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A6" s="138">
+      <c r="N5" s="134"/>
+    </row>
+    <row r="6" spans="1:14" s="91" customFormat="1" ht="15.75">
+      <c r="A6" s="115">
         <v>4</v>
       </c>
-      <c r="B6" s="133" t="str">
+      <c r="B6" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B8," ",'Информация для бумаг'!C8)</f>
         <v>Ершова Татьяна</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="112">
         <f>'Информация для бумаг'!P8</f>
         <v>39166</v>
       </c>
@@ -8617,30 +8105,30 @@
         <f>'Информация для бумаг'!I8</f>
         <v>9</v>
       </c>
-      <c r="F6" s="135" t="str">
+      <c r="F6" s="113" t="str">
         <f>'Информация для бумаг'!K8</f>
         <v>Ул. Малая Карпатская, 17-275</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H6" s="139"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="168"/>
-    </row>
-    <row r="7" s="109" customFormat="1" ht="15.6" spans="1:14">
-      <c r="A7" s="132">
+      <c r="H6" s="174"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
+      <c r="N6" s="134"/>
+    </row>
+    <row r="7" spans="1:14" s="91" customFormat="1" ht="15.75">
+      <c r="A7" s="110">
         <v>5</v>
       </c>
-      <c r="B7" s="133" t="str">
+      <c r="B7" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B9," ",'Информация для бумаг'!C9)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="112">
         <f>'Информация для бумаг'!P9</f>
         <v>40363</v>
       </c>
@@ -8652,30 +8140,30 @@
         <f>'Информация для бумаг'!I9</f>
         <v>6</v>
       </c>
-      <c r="F7" s="140" t="str">
+      <c r="F7" s="116" t="str">
         <f>'Информация для бумаг'!K9</f>
         <v>Пр. Тореза, 80-78</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H7" s="139"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="168"/>
-    </row>
-    <row r="8" s="109" customFormat="1" spans="1:14">
-      <c r="A8" s="138">
+      <c r="H7" s="174"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="134"/>
+    </row>
+    <row r="8" spans="1:14" s="91" customFormat="1">
+      <c r="A8" s="115">
         <v>6</v>
       </c>
-      <c r="B8" s="133" t="str">
+      <c r="B8" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B10," ",'Информация для бумаг'!C10)</f>
         <v>Мелентьева Эмма</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="112">
         <f>'Информация для бумаг'!P10</f>
         <v>39581</v>
       </c>
@@ -8687,25 +8175,25 @@
         <f>'Информация для бумаг'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="135" t="str">
+      <c r="F8" s="113" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Ул. Шишкина, 58</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="N8" s="171"/>
-    </row>
-    <row r="9" s="109" customFormat="1" spans="1:13">
-      <c r="A9" s="132">
+      <c r="H8" s="174"/>
+      <c r="N8" s="137"/>
+    </row>
+    <row r="9" spans="1:14" s="91" customFormat="1">
+      <c r="A9" s="110">
         <v>7</v>
       </c>
-      <c r="B9" s="133" t="str">
+      <c r="B9" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B11," ",'Информация для бумаг'!C11)</f>
         <v>Меньшиков  Савва</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="112">
         <f>'Информация для бумаг'!P11</f>
         <v>39916</v>
       </c>
@@ -8717,29 +8205,29 @@
         <f>'Информация для бумаг'!I11</f>
         <v>7</v>
       </c>
-      <c r="F9" s="135" t="str">
+      <c r="F9" s="113" t="str">
         <f>'Информация для бумаг'!K11</f>
         <v>Ул. Железноводская, 62-98</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H9" s="139"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-    </row>
-    <row r="10" s="109" customFormat="1" spans="1:13">
-      <c r="A10" s="138">
+      <c r="H9" s="174"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+    </row>
+    <row r="10" spans="1:14" s="91" customFormat="1">
+      <c r="A10" s="115">
         <v>8</v>
       </c>
-      <c r="B10" s="133" t="str">
+      <c r="B10" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B12," ",'Информация для бумаг'!C12)</f>
         <v>Островский Виктор</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="112">
         <f>'Информация для бумаг'!P12</f>
         <v>40070</v>
       </c>
@@ -8751,29 +8239,29 @@
         <f>'Информация для бумаг'!I12</f>
         <v>7</v>
       </c>
-      <c r="F10" s="135" t="str">
+      <c r="F10" s="113" t="str">
         <f>'Информация для бумаг'!K12</f>
         <v>Ул. Шишкина, 58</v>
       </c>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="139"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-    </row>
-    <row r="11" s="109" customFormat="1" spans="1:13">
-      <c r="A11" s="132">
+      <c r="H10" s="174"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+    </row>
+    <row r="11" spans="1:14" s="91" customFormat="1">
+      <c r="A11" s="110">
         <v>9</v>
       </c>
-      <c r="B11" s="133" t="str">
+      <c r="B11" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B13," ",'Информация для бумаг'!C13)</f>
         <v>Афинагентов Владимир</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="112">
         <f>'Информация для бумаг'!P13</f>
         <v>40306</v>
       </c>
@@ -8785,29 +8273,29 @@
         <f>'Информация для бумаг'!I13</f>
         <v>6</v>
       </c>
-      <c r="F11" s="135" t="str">
+      <c r="F11" s="113" t="str">
         <f>'Информация для бумаг'!K13</f>
         <v>Ул. Репищева, 4/8-4</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H11" s="139"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-    </row>
-    <row r="12" s="109" customFormat="1" spans="1:13">
-      <c r="A12" s="138">
+      <c r="H11" s="174"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+    </row>
+    <row r="12" spans="1:14" s="91" customFormat="1">
+      <c r="A12" s="115">
         <v>10</v>
       </c>
-      <c r="B12" s="133" t="str">
+      <c r="B12" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B14," ",'Информация для бумаг'!C14)</f>
         <v>Сахибгареев Тимур</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="112">
         <f>'Информация для бумаг'!P14</f>
         <v>40081</v>
       </c>
@@ -8819,29 +8307,29 @@
         <f>'Информация для бумаг'!I14</f>
         <v>7</v>
       </c>
-      <c r="F12" s="135" t="str">
+      <c r="F12" s="113" t="str">
         <f>'Информация для бумаг'!K14</f>
         <v>Пр. Просвещения, 75-231</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-    </row>
-    <row r="13" s="109" customFormat="1" spans="1:13">
-      <c r="A13" s="132">
+      <c r="H12" s="174"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+    </row>
+    <row r="13" spans="1:14" s="91" customFormat="1">
+      <c r="A13" s="110">
         <v>11</v>
       </c>
-      <c r="B13" s="133" t="str">
+      <c r="B13" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B15," ",'Информация для бумаг'!C15)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="112">
         <f>'Информация для бумаг'!P15</f>
         <v>40195</v>
       </c>
@@ -8853,29 +8341,29 @@
         <f>'Информация для бумаг'!I15</f>
         <v>7</v>
       </c>
-      <c r="F13" s="135" t="str">
+      <c r="F13" s="113" t="str">
         <f>'Информация для бумаг'!K15</f>
         <v>Ул. Камышовая, 14А-163</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-    </row>
-    <row r="14" s="109" customFormat="1" spans="1:13">
-      <c r="A14" s="138">
+      <c r="H13" s="174"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+    </row>
+    <row r="14" spans="1:14" s="91" customFormat="1">
+      <c r="A14" s="115">
         <v>12</v>
       </c>
-      <c r="B14" s="133" t="str">
+      <c r="B14" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B16," ",'Информация для бумаг'!C16)</f>
         <v>Тихонов Иван</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="112">
         <f>'Информация для бумаг'!P16</f>
         <v>40469</v>
       </c>
@@ -8887,29 +8375,29 @@
         <f>'Информация для бумаг'!I16</f>
         <v>5</v>
       </c>
-      <c r="F14" s="135" t="str">
+      <c r="F14" s="113" t="str">
         <f>'Информация для бумаг'!K16</f>
         <v>Ул. Щербакова, 23-47</v>
       </c>
-      <c r="G14" s="136" t="s">
+      <c r="G14" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-    </row>
-    <row r="15" s="109" customFormat="1" spans="1:13">
-      <c r="A15" s="132">
+      <c r="H14" s="174"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+    </row>
+    <row r="15" spans="1:14" s="91" customFormat="1">
+      <c r="A15" s="110">
         <v>13</v>
       </c>
-      <c r="B15" s="133" t="str">
+      <c r="B15" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B17," ",'Информация для бумаг'!C17)</f>
         <v>Шалунов Максим</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="112">
         <f>'Информация для бумаг'!P17</f>
         <v>39821</v>
       </c>
@@ -8921,29 +8409,29 @@
         <f>'Информация для бумаг'!I17</f>
         <v>7</v>
       </c>
-      <c r="F15" s="135" t="str">
+      <c r="F15" s="113" t="str">
         <f>'Информация для бумаг'!K17</f>
         <v>Ул. Дибуновская, 37-392</v>
       </c>
-      <c r="G15" s="136" t="s">
+      <c r="G15" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-    </row>
-    <row r="16" s="109" customFormat="1" spans="1:13">
-      <c r="A16" s="138">
+      <c r="H15" s="174"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+    </row>
+    <row r="16" spans="1:14" s="91" customFormat="1">
+      <c r="A16" s="115">
         <v>14</v>
       </c>
-      <c r="B16" s="133" t="str">
+      <c r="B16" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B18," ",'Информация для бумаг'!C18)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="112">
         <f>'Информация для бумаг'!P18</f>
         <v>39529</v>
       </c>
@@ -8955,29 +8443,29 @@
         <f>'Информация для бумаг'!I18</f>
         <v>8</v>
       </c>
-      <c r="F16" s="135" t="str">
+      <c r="F16" s="113" t="str">
         <f>'Информация для бумаг'!K18</f>
         <v>Приозерское шоссе, 16-46</v>
       </c>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-    </row>
-    <row r="17" s="109" customFormat="1" spans="1:13">
-      <c r="A17" s="132">
+      <c r="H16" s="174"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+    </row>
+    <row r="17" spans="1:13" s="91" customFormat="1">
+      <c r="A17" s="110">
         <v>15</v>
       </c>
-      <c r="B17" s="133" t="str">
+      <c r="B17" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B19," ",'Информация для бумаг'!C19)</f>
         <v>Шишкина Анна</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="112">
         <f>'Информация для бумаг'!P19</f>
         <v>39987</v>
       </c>
@@ -8989,61 +8477,61 @@
         <f>'Информация для бумаг'!I19</f>
         <v>7</v>
       </c>
-      <c r="F17" s="135" t="str">
+      <c r="F17" s="113" t="str">
         <f>'Информация для бумаг'!K19</f>
         <v>Пр. Сизова, 14-90</v>
       </c>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="139"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-    </row>
-    <row r="18" s="109" customFormat="1" spans="1:13">
-      <c r="A18" s="138"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+    </row>
+    <row r="18" spans="1:13" s="91" customFormat="1">
+      <c r="A18" s="115"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="61"/>
       <c r="E18" s="62"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-    </row>
-    <row r="19" s="109" customFormat="1" spans="1:13">
-      <c r="A19" s="132"/>
-      <c r="B19" s="141" t="s">
+      <c r="F18" s="113"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+    </row>
+    <row r="19" spans="1:13" s="91" customFormat="1">
+      <c r="A19" s="110"/>
+      <c r="B19" s="161" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-    </row>
-    <row r="20" s="109" customFormat="1" spans="1:13">
-      <c r="A20" s="138">
-        <v>1</v>
-      </c>
-      <c r="B20" s="133" t="str">
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+    </row>
+    <row r="20" spans="1:13" s="91" customFormat="1">
+      <c r="A20" s="115">
+        <v>1</v>
+      </c>
+      <c r="B20" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B35," ",'Информация для бумаг'!C35)</f>
         <v>Беляева Олеся</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="112">
         <f>'Информация для бумаг'!P35</f>
         <v>39916</v>
       </c>
@@ -9055,29 +8543,29 @@
         <f>'Информация для бумаг'!I35</f>
         <v>8</v>
       </c>
-      <c r="F20" s="135" t="str">
+      <c r="F20" s="113" t="str">
         <f>'Информация для бумаг'!K35</f>
         <v>Ул. Вавиловых, 7-3-229</v>
       </c>
-      <c r="G20" s="136" t="s">
+      <c r="G20" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="139"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-    </row>
-    <row r="21" s="109" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A21" s="132">
+      <c r="H20" s="174"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+    </row>
+    <row r="21" spans="1:13" s="91" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="110">
         <v>2</v>
       </c>
-      <c r="B21" s="133" t="str">
+      <c r="B21" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B36," ",'Информация для бумаг'!C36)</f>
         <v>Беляева Софья</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="112">
         <f>'Информация для бумаг'!P36</f>
         <v>38933</v>
       </c>
@@ -9089,33 +8577,33 @@
         <f>'Информация для бумаг'!I36</f>
         <v>6</v>
       </c>
-      <c r="F21" s="135" t="str">
+      <c r="F21" s="113" t="str">
         <f>'Информация для бумаг'!K36</f>
         <v>Ул. Вавиловых, 7-3-229</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H21" s="139"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-    </row>
-    <row r="22" s="109" customFormat="1" ht="21.9" customHeight="1" spans="1:13">
-      <c r="A22" s="138">
+      <c r="H21" s="174"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+    </row>
+    <row r="22" spans="1:13" s="91" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A22" s="115">
         <v>3</v>
       </c>
-      <c r="B22" s="133" t="str">
+      <c r="B22" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B37," ",'Информация для бумаг'!C37)</f>
         <v>Журавская Елизавета</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="112">
         <f>'Информация для бумаг'!P37</f>
         <v>39810</v>
       </c>
-      <c r="D22" s="144" t="str">
+      <c r="D22" s="117" t="str">
         <f>'Информация для бумаг'!H37</f>
         <v>Раздольская СОШ</v>
       </c>
@@ -9123,29 +8611,29 @@
         <f>'Информация для бумаг'!I37</f>
         <v>5</v>
       </c>
-      <c r="F22" s="135" t="str">
+      <c r="F22" s="113" t="str">
         <f>'Информация для бумаг'!K37</f>
         <v>Призерский район, Ул. Приозерская, 95</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H22" s="139"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-    </row>
-    <row r="23" s="109" customFormat="1" spans="1:13">
-      <c r="A23" s="132">
+      <c r="H22" s="174"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+    </row>
+    <row r="23" spans="1:13" s="91" customFormat="1">
+      <c r="A23" s="110">
         <v>4</v>
       </c>
-      <c r="B23" s="133" t="str">
+      <c r="B23" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B38," ",'Информация для бумаг'!C38)</f>
         <v>Мурыгина Арина</v>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="112">
         <f>'Информация для бумаг'!P38</f>
         <v>40421</v>
       </c>
@@ -9157,29 +8645,29 @@
         <f>'Информация для бумаг'!I38</f>
         <v>6</v>
       </c>
-      <c r="F23" s="135" t="str">
+      <c r="F23" s="113" t="str">
         <f>'Информация для бумаг'!K38</f>
         <v>Ул. Малая десятинная, 11-46</v>
       </c>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H23" s="139"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-    </row>
-    <row r="24" s="109" customFormat="1" spans="1:13">
-      <c r="A24" s="138">
+      <c r="H23" s="174"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+    </row>
+    <row r="24" spans="1:13" s="91" customFormat="1">
+      <c r="A24" s="115">
         <v>5</v>
       </c>
-      <c r="B24" s="133" t="str">
+      <c r="B24" s="111" t="str">
         <f>CONCATENATE('Информация для бумаг'!B39," ",'Информация для бумаг'!C39)</f>
         <v>Свитков Родион</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="112">
         <f>'Информация для бумаг'!P39</f>
         <v>39902</v>
       </c>
@@ -9191,372 +8679,371 @@
         <f>'Информация для бумаг'!I39</f>
         <v>7</v>
       </c>
-      <c r="F24" s="135" t="str">
+      <c r="F24" s="113" t="str">
         <f>'Информация для бумаг'!K39</f>
         <v>Ул. Демьяна Бедного, 8-1-74</v>
       </c>
-      <c r="G24" s="136" t="s">
+      <c r="G24" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="H24" s="139"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-    </row>
-    <row r="25" s="109" customFormat="1" spans="1:13">
-      <c r="A25" s="132"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="145"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+    </row>
+    <row r="25" spans="1:13" s="91" customFormat="1">
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="62"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-    </row>
-    <row r="26" s="109" customFormat="1" spans="1:13">
-      <c r="A26" s="132"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="145"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+    </row>
+    <row r="26" spans="1:13" s="91" customFormat="1">
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-    </row>
-    <row r="27" s="109" customFormat="1" ht="12" spans="1:13">
-      <c r="A27" s="147"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="138"/>
-    </row>
-    <row r="28" s="109" customFormat="1" spans="1:13">
-      <c r="A28" s="132"/>
-      <c r="B28" s="149" t="str">
+      <c r="F26" s="119"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+    </row>
+    <row r="27" spans="1:13" s="91" customFormat="1" ht="12">
+      <c r="A27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+    </row>
+    <row r="28" spans="1:13" s="91" customFormat="1">
+      <c r="A28" s="110"/>
+      <c r="B28" s="122" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="150" t="s">
+      <c r="C28" s="112"/>
+      <c r="D28" s="164" t="s">
         <v>329</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="138"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="138"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="138"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="62" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="153" t="s">
+      <c r="C29" s="112"/>
+      <c r="D29" s="166" t="s">
         <v>330</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="172" t="s">
+      <c r="E29" s="167"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="168" t="s">
         <v>331</v>
       </c>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="174"/>
-    </row>
-    <row r="30" ht="15.6" spans="1:13">
-      <c r="A30" s="155" t="s">
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="170"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75">
+      <c r="A30" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="157"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="175"/>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
       <c r="K30" s="62"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A31" s="158" t="s">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A31" s="171" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="159"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="156"/>
+      <c r="B31" s="172"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="62"/>
       <c r="J31" s="62"/>
       <c r="K31" s="62"/>
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:13">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="H32" s="162" t="s">
+      <c r="H32" s="128" t="s">
         <v>335</v>
       </c>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" spans="8:8">
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1">
       <c r="H33" s="58" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="34" ht="23.25" customHeight="1"/>
-    <row r="35" ht="23.25" customHeight="1"/>
-    <row r="36" ht="23.25" customHeight="1"/>
-    <row r="37" ht="23.25" customHeight="1"/>
-    <row r="38" ht="23.25" customHeight="1"/>
-    <row r="39" ht="23.25" customHeight="1"/>
-    <row r="40" ht="23.25" customHeight="1"/>
-    <row r="41" ht="23.25" customHeight="1"/>
-    <row r="42" ht="23.25" customHeight="1"/>
+    <row r="34" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="35" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="36" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="37" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="38" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="39" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="40" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="41" spans="8:8" ht="23.25" customHeight="1"/>
+    <row r="42" spans="8:8" ht="23.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H3:H30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="I29:M29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H3:H30"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.229166666666667" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="58" customWidth="1"/>
     <col min="2" max="6" width="8" style="58"/>
-    <col min="7" max="7" width="23.5555555555556" style="58" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="58" customWidth="1"/>
-    <col min="9" max="9" width="4.88888888888889" style="58" customWidth="1"/>
-    <col min="10" max="10" width="9.44444444444444" style="58" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="58" customWidth="1"/>
     <col min="11" max="11" width="8" style="58"/>
-    <col min="12" max="12" width="13.1111111111111" style="58"/>
-    <col min="13" max="13" width="9.88888888888889" style="58"/>
+    <col min="12" max="12" width="13.140625" style="58"/>
+    <col min="13" max="13" width="9.85546875" style="58"/>
     <col min="14" max="14" width="8" style="58"/>
-    <col min="15" max="15" width="1.55555555555556" style="58" customWidth="1"/>
+    <col min="15" max="15" width="1.5703125" style="58" customWidth="1"/>
     <col min="16" max="16384" width="8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="176" t="s">
         <v>338</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="86" t="s">
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="85" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="176" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:7">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:14">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89" t="s">
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="187"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="177" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-    </row>
-    <row r="6" ht="18" spans="1:14">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="H6" s="85" t="s">
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="187"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="H6" s="176" t="s">
         <v>342</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="90" t="s">
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="87" t="s">
         <v>343</v>
       </c>
-      <c r="I7" s="119" t="s">
+      <c r="I7" s="100" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="183" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="H8" s="95" t="s">
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="190"/>
+      <c r="H8" s="88" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:10">
-      <c r="A9" s="91"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="183"/>
+      <c r="B9" s="191"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
       <c r="H9" s="85" t="s">
         <v>348</v>
       </c>
       <c r="I9" s="58">
         <v>15</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="90" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" ht="45" customHeight="1" spans="1:14">
-      <c r="A10" s="99" t="s">
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="184" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="194" t="s">
         <v>351</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="H10" s="88" t="s">
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="H10" s="86" t="s">
         <v>352</v>
       </c>
-      <c r="J10" s="120" t="str">
+      <c r="J10" s="178" t="str">
         <f>'Информация для бумаг'!C3</f>
         <v>Санкт-Петербург - Толмачево- д.Ящера-Толмачево- Санкт-Петербург</v>
       </c>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="184"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
       <c r="H11" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="I11" s="122">
+      <c r="I11" s="101">
         <v>11</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:12">
-      <c r="A12" s="101">
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="89">
         <v>45050</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -9565,59 +9052,59 @@
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="180" t="s">
         <v>356</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="123">
+      <c r="I12" s="180"/>
+      <c r="J12" s="102">
         <f>'Информация для бумаг'!C2</f>
         <v>45045</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="125">
+      <c r="L12" s="104">
         <f>'Информация для бумаг'!D2</f>
         <v>45056</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A13" s="103" t="s">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A13" s="185" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="195" t="s">
         <v>359</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:14">
-      <c r="A14" s="103"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="H14" s="108" t="s">
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75">
+      <c r="A14" s="185"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="198"/>
+      <c r="H14" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="K14" s="124" t="str">
+      <c r="K14" s="181" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="103"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="107"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="185"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
       <c r="K15" s="59" t="s">
         <v>361</v>
       </c>
@@ -9626,63 +9113,63 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A16" s="103"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="107"/>
-      <c r="H16" s="109" t="s">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A16" s="185"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198"/>
+      <c r="H16" s="91" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="110">
+    <row r="17" spans="1:14">
+      <c r="A17" s="92">
         <v>45055</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="182" t="s">
         <v>363</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="H17" s="112" t="s">
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="H17" s="93" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="113">
+    <row r="18" spans="1:14">
+      <c r="A18" s="94">
         <v>45056</v>
       </c>
-      <c r="B18" s="114" t="s">
+      <c r="B18" s="95" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:14">
-      <c r="A19" s="117"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="H19" s="108" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="H19" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="K19" s="124" t="str">
+      <c r="K19" s="181" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-    </row>
-    <row r="20" spans="11:12">
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="K20" s="59" t="s">
         <v>361</v>
       </c>
@@ -9691,53 +9178,53 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H22" s="85" t="s">
+    <row r="22" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H22" s="176" t="s">
         <v>367</v>
       </c>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="8:14">
-      <c r="H23" s="85" t="s">
+      <c r="I22" s="176"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="176"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="176" t="s">
         <v>368</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-    </row>
-    <row r="25" ht="15.6" spans="8:13">
-      <c r="H25" s="108" t="s">
+      <c r="I23" s="176"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="176"/>
+      <c r="M23" s="176"/>
+      <c r="N23" s="176"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="H25" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="M25" s="126">
+      <c r="M25" s="105">
         <f>'Информация для бумаг'!C28</f>
         <v>45033</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:9">
-      <c r="A26" s="108" t="s">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="90" t="s">
         <v>370</v>
       </c>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108" t="s">
+      <c r="H26" s="90"/>
+      <c r="I26" s="90" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="8:8">
-      <c r="H28" s="108" t="s">
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="H28" s="90" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="8:12">
-      <c r="H29" s="108" t="s">
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="H29" s="90" t="s">
         <v>373</v>
       </c>
       <c r="K29" s="58">
@@ -9748,19 +9235,19 @@
         <v>374</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="108" t="s">
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="90" t="s">
         <v>375</v>
       </c>
-      <c r="H30" s="108"/>
-    </row>
-    <row r="31" ht="15.6" spans="8:8">
-      <c r="H31" s="108" t="s">
+      <c r="H30" s="90"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="H31" s="90" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="8:12">
-      <c r="H32" s="108" t="s">
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="H32" s="90" t="s">
         <v>377</v>
       </c>
       <c r="K32" s="58">
@@ -9771,23 +9258,13 @@
         <v>374</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="8:8">
-      <c r="H33" s="112" t="s">
+    <row r="33" spans="8:8" ht="15.75">
+      <c r="H33" s="93" t="s">
         <v>378</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H22:N22"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -9796,50 +9273,59 @@
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="B10:F11"/>
     <mergeCell ref="B13:F16"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
-  <pageMargins left="0.388888888888889" right="0.388888888888889" top="0.388888888888889" bottom="0.588888888888889" header="0" footer="0.509027777777778"/>
+  <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8" style="4"/>
-    <col min="2" max="2" width="28.8888888888889" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="4"/>
-    <col min="4" max="4" width="13.1111111111111" style="4"/>
-    <col min="5" max="5" width="21.4444444444444" style="4"/>
-    <col min="6" max="6" width="12.8888888888889" style="4"/>
-    <col min="7" max="7" width="9.33333333333333" style="4"/>
+    <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="4"/>
+    <col min="4" max="4" width="13.140625" style="4"/>
+    <col min="5" max="5" width="21.42578125" style="4"/>
+    <col min="6" max="6" width="12.85546875" style="4"/>
+    <col min="7" max="7" width="9.28515625" style="4"/>
     <col min="8" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="12.1111111111111" style="16"/>
-    <col min="10" max="10" width="19.4444444444444" style="4"/>
-    <col min="11" max="11" width="28.1111111111111" style="4"/>
-    <col min="12" max="12" width="31.4444444444444" style="4"/>
-    <col min="13" max="13" width="18.5555555555556" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" style="4"/>
-    <col min="15" max="15" width="14.5555555555556" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.8888888888889" style="4"/>
-    <col min="17" max="17" width="14.1111111111111" style="4"/>
+    <col min="9" max="9" width="12.140625" style="16"/>
+    <col min="10" max="10" width="19.42578125" style="4"/>
+    <col min="11" max="11" width="28.140625" style="4"/>
+    <col min="12" max="12" width="31.42578125" style="4"/>
+    <col min="13" max="13" width="18.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="4"/>
+    <col min="15" max="15" width="14.5703125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="4"/>
+    <col min="17" max="17" width="14.140625" style="4"/>
     <col min="18" max="16384" width="8" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:16">
       <c r="B1" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:16">
       <c r="B2" s="4" t="s">
         <v>380</v>
       </c>
@@ -9851,7 +9337,7 @@
       </c>
       <c r="E2" s="66"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:16">
       <c r="B3" s="4" t="s">
         <v>381</v>
       </c>
@@ -9860,7 +9346,7 @@
       </c>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="1:16">
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -9907,7 +9393,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:16">
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -9952,7 +9438,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:16">
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -9997,7 +9483,7 @@
         <v>39367</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:16">
+    <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -10042,7 +9528,7 @@
         <v>39857</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:16">
+    <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -10087,7 +9573,7 @@
         <v>39166</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:16">
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -10132,7 +9618,7 @@
         <v>40363</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:16">
+    <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -10176,7 +9662,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:16">
+    <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -10221,7 +9707,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:16">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -10266,7 +9752,7 @@
         <v>40070</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:16">
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -10311,7 +9797,7 @@
         <v>40306</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:16">
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -10356,7 +9842,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:16">
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -10401,7 +9887,7 @@
         <v>40195</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:16">
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -10446,7 +9932,7 @@
         <v>40469</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:16">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -10491,7 +9977,7 @@
         <v>39821</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:16">
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10536,7 +10022,7 @@
         <v>39529</v>
       </c>
     </row>
-    <row r="19" ht="16.35" spans="1:16">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -10581,7 +10067,7 @@
         <v>39987</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="2:16">
+    <row r="20" spans="1:16" ht="15">
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -10596,7 +10082,7 @@
       <c r="O20" s="73"/>
       <c r="P20" s="19"/>
     </row>
-    <row r="21" ht="14.4" spans="2:16">
+    <row r="21" spans="1:16" ht="15">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
@@ -10611,7 +10097,7 @@
       <c r="O21" s="20"/>
       <c r="P21" s="21"/>
     </row>
-    <row r="22" ht="14.4" spans="2:16">
+    <row r="22" spans="1:16" ht="15">
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -10626,7 +10112,7 @@
       <c r="O22" s="15"/>
       <c r="P22" s="78"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:16">
       <c r="B25" s="4" t="s">
         <v>432</v>
       </c>
@@ -10640,7 +10126,7 @@
         <v>89217427984</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:16">
       <c r="B26" s="4" t="s">
         <v>434</v>
       </c>
@@ -10654,7 +10140,7 @@
         <v>89679796720</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:16">
       <c r="B28" s="4" t="s">
         <v>436</v>
       </c>
@@ -10662,7 +10148,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:16">
       <c r="B29" s="4" t="s">
         <v>437</v>
       </c>
@@ -10670,18 +10156,18 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:16">
       <c r="B30" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C30" s="71"/>
     </row>
-    <row r="32" ht="13.95" spans="2:2">
+    <row r="32" spans="1:16">
       <c r="B32" s="72" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" ht="15.15" spans="2:16">
+    <row r="33" spans="2:24" ht="15">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -10698,7 +10184,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="2:24">
+    <row r="34" spans="2:24" ht="15">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -10719,7 +10205,7 @@
       <c r="W34" s="80"/>
       <c r="X34" s="80"/>
     </row>
-    <row r="35" ht="16.35" spans="2:16">
+    <row r="35" spans="2:24" ht="15.75">
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
@@ -10748,7 +10234,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="36" ht="16.35" spans="2:16">
+    <row r="36" spans="2:24" ht="15.75">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -10775,7 +10261,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="37" ht="16.35" spans="2:16">
+    <row r="37" spans="2:24" ht="15.75">
       <c r="B37" s="8" t="s">
         <v>57</v>
       </c>
@@ -10804,7 +10290,7 @@
         <v>39810</v>
       </c>
     </row>
-    <row r="38" ht="16.35" spans="2:16">
+    <row r="38" spans="2:24" ht="15.75">
       <c r="B38" s="8" t="s">
         <v>83</v>
       </c>
@@ -10831,7 +10317,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="39" ht="16.35" spans="2:16">
+    <row r="39" spans="2:24" ht="15.75">
       <c r="B39" s="8" t="s">
         <v>302</v>
       </c>
@@ -10858,7 +10344,7 @@
         <v>39902</v>
       </c>
     </row>
-    <row r="40" ht="15.15" spans="2:16">
+    <row r="40" spans="2:24" ht="15">
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -10871,7 +10357,7 @@
       <c r="O40" s="74"/>
       <c r="P40" s="83"/>
     </row>
-    <row r="41" ht="15.15" spans="2:16">
+    <row r="41" spans="2:24" ht="15">
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -10884,7 +10370,7 @@
       <c r="O41" s="74"/>
       <c r="P41" s="83"/>
     </row>
-    <row r="42" ht="15.15" spans="2:16">
+    <row r="42" spans="2:24" ht="15">
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
       <c r="D42" s="74"/>
@@ -10900,12 +10386,12 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10915,25 +10401,25 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.44444444444444" style="58"/>
-    <col min="2" max="2" width="35.6666666666667" style="58" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="58"/>
+    <col min="2" max="2" width="35.7109375" style="58" customWidth="1"/>
     <col min="3" max="4" width="8" style="58"/>
-    <col min="5" max="5" width="12.8888888888889" style="58"/>
-    <col min="6" max="6" width="27.4444444444444" style="58" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" style="59" customWidth="1"/>
-    <col min="8" max="8" width="30.3333333333333" style="58" customWidth="1"/>
-    <col min="9" max="9" width="24.3333333333333" style="58" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="58"/>
+    <col min="6" max="6" width="27.42578125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="59" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="58" customWidth="1"/>
     <col min="10" max="16384" width="8" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="58" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:9">
       <c r="B2" s="58" t="s">
         <v>448</v>
       </c>
@@ -11564,7 +11050,7 @@
       <c r="H23" s="62"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:9">
       <c r="B25" s="58" t="str">
         <f>'Информация для бумаг'!C25</f>
         <v>Хайтов Вадим Михайлович</v>
@@ -11573,7 +11059,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:9">
       <c r="B27" s="58" t="str">
         <f>'Информация для бумаг'!C26</f>
         <v>Котельникова Валентина Сергеевна</v>
@@ -11585,57 +11071,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.66666666666667" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.7777777777778" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.4444444444444" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.2222222222222" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.22222222222222" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.4444444444444" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.2222222222222" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.8888888888889" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.4444444444444" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.2222222222222" style="8" customWidth="1"/>
-    <col min="11" max="14" width="15.2222222222222" style="8" customWidth="1"/>
-    <col min="15" max="15" width="15.6666666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="8" customWidth="1"/>
+    <col min="11" max="14" width="15.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="8" customWidth="1"/>
     <col min="16" max="16" width="13" style="8" customWidth="1"/>
-    <col min="17" max="17" width="15.1111111111111" style="8" customWidth="1"/>
-    <col min="18" max="18" width="14.8888888888889" style="8" customWidth="1"/>
-    <col min="19" max="21" width="9.66666666666667" style="8" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="8" customWidth="1"/>
+    <col min="19" max="21" width="9.7109375" style="8" customWidth="1"/>
     <col min="22" max="22" width="23" style="8" customWidth="1"/>
     <col min="23" max="23" width="13" style="8" customWidth="1"/>
-    <col min="24" max="24" width="9.66666666666667" style="8"/>
-    <col min="25" max="25" width="14.6666666666667" style="8" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" style="8"/>
+    <col min="24" max="24" width="9.7109375" style="8"/>
+    <col min="25" max="25" width="14.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="8"/>
     <col min="27" max="27" width="13" style="8" customWidth="1"/>
-    <col min="28" max="28" width="13.2222222222222" style="8" customWidth="1"/>
-    <col min="29" max="30" width="9.66666666666667" style="8"/>
-    <col min="31" max="31" width="13.7777777777778" style="8" customWidth="1"/>
-    <col min="32" max="32" width="9.66666666666667" style="8"/>
-    <col min="33" max="33" width="12.3333333333333" style="8" customWidth="1"/>
-    <col min="34" max="35" width="14.3333333333333" style="8" customWidth="1"/>
-    <col min="36" max="16384" width="9.66666666666667" style="8"/>
+    <col min="28" max="28" width="13.28515625" style="8" customWidth="1"/>
+    <col min="29" max="30" width="9.7109375" style="8"/>
+    <col min="31" max="31" width="13.7109375" style="8" customWidth="1"/>
+    <col min="32" max="32" width="9.7109375" style="8"/>
+    <col min="33" max="33" width="12.28515625" style="8" customWidth="1"/>
+    <col min="34" max="35" width="14.28515625" style="8" customWidth="1"/>
+    <col min="36" max="16384" width="9.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:35">
+    <row r="1" spans="1:35" ht="60">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -11840,7 +11324,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:35">
+    <row r="3" spans="1:35" s="11" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -12585,7 +12069,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:35">
+    <row r="11" spans="1:35">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -13342,7 +12826,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" s="23" customFormat="1" spans="1:35">
+    <row r="19" spans="1:35" s="23" customFormat="1">
       <c r="A19" s="38" t="s">
         <v>96</v>
       </c>
@@ -13618,7 +13102,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" spans="1:35">
+    <row r="22" spans="1:35">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -13899,7 +13383,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" s="23" customFormat="1" spans="1:35">
+    <row r="25" spans="1:35" s="23" customFormat="1">
       <c r="A25" s="38" t="s">
         <v>119</v>
       </c>
@@ -14090,7 +13574,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="27" s="23" customFormat="1" spans="1:35">
+    <row r="27" spans="1:35" s="23" customFormat="1">
       <c r="A27" s="39" t="s">
         <v>128</v>
       </c>
@@ -14152,7 +13636,7 @@
       <c r="AH27" s="40"/>
       <c r="AI27" s="40"/>
     </row>
-    <row r="28" s="23" customFormat="1" spans="1:35">
+    <row r="28" spans="1:35" s="23" customFormat="1">
       <c r="A28" s="32" t="s">
         <v>133</v>
       </c>
@@ -14215,7 +13699,7 @@
       <c r="AH28" s="31"/>
       <c r="AI28" s="31"/>
     </row>
-    <row r="29" s="23" customFormat="1" spans="1:35">
+    <row r="29" spans="1:35" s="23" customFormat="1">
       <c r="A29" s="32" t="s">
         <v>139</v>
       </c>
@@ -14604,7 +14088,7 @@
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:35">
       <c r="A35" s="8" t="s">
         <v>162</v>
       </c>
@@ -14627,7 +14111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:35">
       <c r="A36" s="8" t="s">
         <v>162</v>
       </c>
@@ -14732,30 +14216,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:M36">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:M36"/>
   <conditionalFormatting sqref="O30">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O32">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="V8" r:id="rId1" display="alexbritik@gmail.com"/>
-    <hyperlink ref="V4" r:id="rId2" display="mbatakov@mail.ru"/>
-    <hyperlink ref="V21" r:id="rId3" display="neva-most@yandex.ru"/>
-    <hyperlink ref="V38" r:id="rId4" display="konstantin.svitkov@gmail.com"/>
-    <hyperlink ref="V11" r:id="rId5" display="9112327024@mail.ru"/>
+    <hyperlink ref="V8" r:id="rId1"/>
+    <hyperlink ref="V4" r:id="rId2"/>
+    <hyperlink ref="V21" r:id="rId3"/>
+    <hyperlink ref="V38" r:id="rId4"/>
+    <hyperlink ref="V11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>